--- a/bloque2/auditoria.xlsx
+++ b/bloque2/auditoria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master\AIW\bloque2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09D9D1-E1B4-4587-AFA4-3D0F9DAEE45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573A200-85DA-4B73-BF22-2D3E0708D8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A96526C-04F3-4F9F-B5FD-B733B4BBC5E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A96526C-04F3-4F9F-B5FD-B733B4BBC5E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{66C0D1F9-A7BC-4A77-8174-DE678CE529F7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pablo MS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se podría separar, veremos…
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <t>Tema</t>
   </si>
@@ -512,6 +487,18 @@
   </si>
   <si>
     <t>about us, customer service,awards,plusnet,deals</t>
+  </si>
+  <si>
+    <t>Supuesta difusa</t>
+  </si>
+  <si>
+    <t>Bonuses</t>
+  </si>
+  <si>
+    <t>/business/bonusess</t>
+  </si>
+  <si>
+    <t>Dividio en /business/bonusses</t>
   </si>
 </sst>
 </file>
@@ -563,7 +550,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,20 +569,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -891,11 +866,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -912,43 +909,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,6 +945,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,82 +982,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1361,22 +1342,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213753B-4C37-4988-A0D2-4BD79854BDB4}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="4" width="65.42578125" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="3" max="4" width="65.44140625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1377,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1412,647 +1393,669 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="44" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="44" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="F6" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="24" t="s">
+      <c r="F7" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="38" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="38" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="41" t="s">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="22" t="s">
+      <c r="F12" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="22" t="s">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="22" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="22" t="s">
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="46" t="s">
+      <c r="F17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D18" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F18" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="46" t="s">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="24" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F20" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="30" t="s">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31" t="s">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="30" t="s">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="32" t="s">
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="24" t="s">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="39" t="s">
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="39" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F29" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="46" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D30" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E30" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F30" s="41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="46" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D31" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E31" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F31" s="41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="49" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D32" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E32" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F32" s="43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12" t="s">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B42" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C42" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52" t="s">
+      <c r="D42" s="44"/>
+      <c r="E42" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F42" s="46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="46" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D43" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E43" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F43" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="54" t="s">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="29"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D44" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E44" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F44" s="48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="4" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
